--- a/sofaplayer/Bundesliga/1. FC Heidenheim_stats.xlsx
+++ b/sofaplayer/Bundesliga/1. FC Heidenheim_stats.xlsx
@@ -5300,341 +5300,341 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Adrian Beck</t>
+          <t>Julian Niehues</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>845742</v>
+        <v>1066042</v>
       </c>
       <c r="E14" t="n">
-        <v>6.7352941176471</v>
+        <v>6.79375</v>
       </c>
       <c r="F14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>739</v>
+        <v>916</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8273</v>
+        <v>1.0465</v>
       </c>
       <c r="L14" t="n">
-        <v>739</v>
+        <v>305.33333333333</v>
       </c>
       <c r="M14" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N14" t="n">
+        <v>5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>21.428571428571</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.76138109</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>564</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>338</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>80.094786729858</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>422</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>190</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>148</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>45.652173913043</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>53</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AU14" t="n">
         <v>4</v>
       </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.7743734799999999</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>446</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>42</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>53.164556962025</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>22</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>46.808510638298</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>20</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>110</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>22</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>108.7</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>16</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>84</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>9</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>21</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>14</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>19</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>6</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>37</v>
+      </c>
+      <c r="CV14" t="n">
         <v>12</v>
       </c>
-      <c r="AE14" t="n">
-        <v>255</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>82.792207792208</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>308</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>104</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>76</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>11.111111111111</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ14" t="n">
+      <c r="CW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>46</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>7</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>58.333333333333</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>213</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>209</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI14" t="n">
         <v>4</v>
       </c>
-      <c r="AR14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>59.259259259259</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>47</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>45.631067961165</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>42</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>50.602409638554</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>25</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>101</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>12</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>19</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>114.5</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>17</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>53</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>8</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB14" t="n">
-        <v>12</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>11</v>
-      </c>
-      <c r="CD14" t="n">
-        <v>9</v>
-      </c>
-      <c r="CE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ14" t="n">
-        <v>18</v>
-      </c>
-      <c r="CK14" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR14" t="n">
-        <v>12</v>
-      </c>
-      <c r="CS14" t="n">
-        <v>27</v>
-      </c>
-      <c r="CT14" t="n">
-        <v>9</v>
-      </c>
-      <c r="CU14" t="n">
-        <v>56</v>
-      </c>
-      <c r="CV14" t="n">
-        <v>15</v>
-      </c>
-      <c r="CW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ14" t="n">
-        <v>15</v>
-      </c>
-      <c r="DA14" t="n">
-        <v>12</v>
-      </c>
-      <c r="DB14" t="n">
-        <v>85.71428571428601</v>
-      </c>
-      <c r="DC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF14" t="n">
-        <v>122</v>
-      </c>
-      <c r="DG14" t="n">
-        <v>186</v>
-      </c>
-      <c r="DH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI14" t="n">
-        <v>3</v>
-      </c>
       <c r="DJ14" t="n">
-        <v>2163076</v>
+        <v>2189953</v>
       </c>
       <c r="DK14" t="inlineStr">
         <is>
@@ -5656,341 +5656,341 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Julian Niehues</t>
+          <t>Adrian Beck</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1066042</v>
+        <v>845742</v>
       </c>
       <c r="E15" t="n">
-        <v>6.79375</v>
+        <v>6.7352941176471</v>
       </c>
       <c r="F15" t="n">
+        <v>17</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>739</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.8273</v>
+      </c>
+      <c r="L15" t="n">
+        <v>739</v>
+      </c>
+      <c r="M15" t="n">
+        <v>10</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.7743734799999999</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>446</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>255</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>82.792207792208</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>308</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>104</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>76</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>11.111111111111</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
         <v>16</v>
       </c>
-      <c r="G15" t="n">
+      <c r="AZ15" t="n">
+        <v>59.259259259259</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>47</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>45.631067961165</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>42</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>50.602409638554</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>25</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>101</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>19</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>17</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>53</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>12</v>
+      </c>
+      <c r="CC15" t="n">
         <v>11</v>
       </c>
-      <c r="H15" t="n">
-        <v>916</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="CD15" t="n">
+        <v>9</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>18</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>12</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>27</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>9</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>56</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>15</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>15</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>12</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>85.71428571428601</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>122</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>186</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI15" t="n">
         <v>3</v>
       </c>
-      <c r="K15" t="n">
-        <v>1.0465</v>
-      </c>
-      <c r="L15" t="n">
-        <v>305.33333333333</v>
-      </c>
-      <c r="M15" t="n">
-        <v>14</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>21.428571428571</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.76138109</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>564</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>338</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>80.094786729858</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>422</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>190</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>148</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>45.652173913043</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>53</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>42</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>53.164556962025</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>22</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>46.808510638298</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>20</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>110</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>22</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>108.7</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>16</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>3</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>84</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>5</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>9</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>5</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>21</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>14</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>19</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR15" t="n">
-        <v>3</v>
-      </c>
-      <c r="CS15" t="n">
-        <v>6</v>
-      </c>
-      <c r="CT15" t="n">
-        <v>3</v>
-      </c>
-      <c r="CU15" t="n">
-        <v>37</v>
-      </c>
-      <c r="CV15" t="n">
-        <v>12</v>
-      </c>
-      <c r="CW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ15" t="n">
-        <v>46</v>
-      </c>
-      <c r="DA15" t="n">
-        <v>7</v>
-      </c>
-      <c r="DB15" t="n">
-        <v>58.333333333333</v>
-      </c>
-      <c r="DC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF15" t="n">
-        <v>213</v>
-      </c>
-      <c r="DG15" t="n">
-        <v>209</v>
-      </c>
-      <c r="DH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI15" t="n">
-        <v>4</v>
-      </c>
       <c r="DJ15" t="n">
-        <v>2189953</v>
+        <v>2163076</v>
       </c>
       <c r="DK15" t="inlineStr">
         <is>
